--- a/src/test/java/com/pack/testData/LaborStructure_Assignments.xlsx
+++ b/src/test/java/com/pack/testData/LaborStructure_Assignments.xlsx
@@ -92,6 +92,13 @@
   </si>
   <si>
     <t xml:space="preserve">Auto Assignment3 </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Job1
+</t>
   </si>
 </sst>
 </file>
@@ -445,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L:L" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -462,11 +469,10 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.2852" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -503,19 +509,16 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
+      <c r="L1" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -553,19 +556,16 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2">
-        <v>23</v>
+      <c r="L2" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
         <v>21</v>
       </c>
     </row>
